--- a/experiment/other_distill/records.xlsx
+++ b/experiment/other_distill/records.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB1EAA1-67C0-4AF4-A1F5-9D94323FB0D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B566D18-C40A-40C7-AF3F-E218F3B520AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,241 +401,249 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>12.578900000000001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>13.5778</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>14.4594</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>12.6416</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="1">
+        <v>12.0044</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12.6386</v>
+      </c>
+      <c r="F3" s="1">
+        <v>13.502700000000001</v>
+      </c>
+      <c r="G3" s="1">
+        <v>11.9216</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
         <v>4</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
